--- a/output/fit_clients/fit_round_403.xlsx
+++ b/output/fit_clients/fit_round_403.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1807313000.682548</v>
+        <v>1882162441.358456</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08121954783170261</v>
+        <v>0.09938853756263187</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03575712221106721</v>
+        <v>0.03207948142309926</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>903656470.1264322</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1629683901.313688</v>
+        <v>2085252033.765622</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1582112114606884</v>
+        <v>0.1620759346755331</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04325065916831363</v>
+        <v>0.04604685206783225</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>814841933.3805447</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4100850215.35627</v>
+        <v>4849591130.429996</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1359089572108315</v>
+        <v>0.1047352480733798</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03345368100981538</v>
+        <v>0.03100448858763749</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>145</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2050425129.017501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4058352118.477832</v>
+        <v>4252637772.223801</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08698330154938086</v>
+        <v>0.1041484864850989</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04067375201756895</v>
+        <v>0.04467189074879849</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>150</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2029176059.061855</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2434722567.630655</v>
+        <v>2681170250.334893</v>
       </c>
       <c r="F6" t="n">
-        <v>0.114730832388178</v>
+        <v>0.1324321846457892</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04212883282594795</v>
+        <v>0.04372788178626135</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1217361266.37919</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2638699559.933742</v>
+        <v>2308992533.632751</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06888875647812547</v>
+        <v>0.06727841888345873</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04801774115413589</v>
+        <v>0.03141804673125663</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>126</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1319349779.625115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3416124142.463519</v>
+        <v>3906223712.265249</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2147704864865306</v>
+        <v>0.2199880811340997</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02809217159332515</v>
+        <v>0.02933662682815284</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>128</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1708062171.300819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2142619593.007248</v>
+        <v>1841540230.054248</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1428422966365849</v>
+        <v>0.185413510722942</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0245474582246287</v>
+        <v>0.02752699603419157</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1071309803.34559</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5576883158.67709</v>
+        <v>3791518576.319313</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1352186189836157</v>
+        <v>0.1576874334187473</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04025831180567251</v>
+        <v>0.03903980454989692</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>169</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2788441723.334827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3390235622.307957</v>
+        <v>3834468211.691381</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1197986471193896</v>
+        <v>0.1381734917944522</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04403906053270255</v>
+        <v>0.04043496040117378</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>166</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1695117781.368386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2590917274.965909</v>
+        <v>3108657108.90152</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1395130932262275</v>
+        <v>0.1501499854063623</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04148080581383526</v>
+        <v>0.04583413210714918</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>137</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1295458618.064817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3496051737.0405</v>
+        <v>4276063446.939446</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06400791341912856</v>
+        <v>0.07737150759320521</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02069462268893447</v>
+        <v>0.02587801333119567</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>136</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1748025949.060019</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3895407109.497671</v>
+        <v>2852186837.963162</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1820958237981192</v>
+        <v>0.174412396518301</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03486733655869649</v>
+        <v>0.03820079187076256</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>129</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1947703524.361503</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1728896400.093827</v>
+        <v>1251516149.590821</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0875000599842671</v>
+        <v>0.1042580700235218</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03850815719541251</v>
+        <v>0.04867953305687608</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>864448337.4574383</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1950216613.378946</v>
+        <v>2591587585.813704</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1126038189928537</v>
+        <v>0.1103091794001917</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04787247041995512</v>
+        <v>0.05090538096627447</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>975108386.6321684</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3984521674.328194</v>
+        <v>3341227508.618509</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1248536408512515</v>
+        <v>0.1134681244998669</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04272566067133333</v>
+        <v>0.03319854520224318</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>118</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1992260872.551497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2941183497.561543</v>
+        <v>3540119032.301598</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1377794531460571</v>
+        <v>0.1316743632590457</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02925770422938133</v>
+        <v>0.02499146384375859</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>132</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1470591783.316394</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>881570290.5180097</v>
+        <v>1224465803.067266</v>
       </c>
       <c r="F19" t="n">
-        <v>0.120080065561711</v>
+        <v>0.1602874540726707</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02397543406867125</v>
+        <v>0.02477156538531399</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>440785145.664214</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2252327719.430419</v>
+        <v>1725573864.018946</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1308221430554716</v>
+        <v>0.1225922322507313</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03002525947873614</v>
+        <v>0.01927802243242436</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>53</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1126163859.198336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2082443157.503481</v>
+        <v>2624032163.565852</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07913903717177267</v>
+        <v>0.09936765843512455</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03690170349590805</v>
+        <v>0.03815525748825713</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1041221606.831896</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3838580506.179097</v>
+        <v>3211786309.034819</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1110411481388787</v>
+        <v>0.1130104010204703</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05342625174777437</v>
+        <v>0.03577503268719649</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1919290264.421249</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1188119711.167315</v>
+        <v>1442468182.45311</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1218087152398097</v>
+        <v>0.1362982428433626</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0458354030130036</v>
+        <v>0.03967274291550965</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>594059894.1069632</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3868753729.882536</v>
+        <v>2580350846.297317</v>
       </c>
       <c r="F24" t="n">
-        <v>0.146018385937688</v>
+        <v>0.1228133417467543</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0268113279768476</v>
+        <v>0.02281720210957725</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>117</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1934376841.772106</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1006692519.569651</v>
+        <v>1418979566.51208</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08873534503024308</v>
+        <v>0.08487128630534273</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02195549878291214</v>
+        <v>0.0282768423914851</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>503346322.2472769</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1044877483.789563</v>
+        <v>920237640.8186702</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08990092909411264</v>
+        <v>0.1090350638592802</v>
       </c>
       <c r="G26" t="n">
-        <v>0.027638808808767</v>
+        <v>0.03610206420950589</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>522438724.983557</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3553749737.267034</v>
+        <v>2841805468.096245</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1576441179382992</v>
+        <v>0.136519197203214</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02166950381592321</v>
+        <v>0.02417914286079784</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1776874900.953212</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3246950912.980091</v>
+        <v>3239221829.861809</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1379031291162135</v>
+        <v>0.1405554613326581</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04849014097645797</v>
+        <v>0.04943428704904745</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>133</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1623475489.192258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5295078029.006471</v>
+        <v>5783790065.238085</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1045966349832093</v>
+        <v>0.1291612905923943</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04355864798592331</v>
+        <v>0.03359649366554016</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>178</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2647538941.614595</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1876997546.947857</v>
+        <v>1888108900.110791</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08573017187747792</v>
+        <v>0.09627178571947835</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03071973279584585</v>
+        <v>0.02646321816304535</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>938498796.9142768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1353721273.411005</v>
+        <v>1115388418.795406</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08042814103306112</v>
+        <v>0.0790179661623427</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03412793377630295</v>
+        <v>0.04746210972307623</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>676860552.0048178</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1254950239.464097</v>
+        <v>1350281086.962312</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09859013000381323</v>
+        <v>0.07883232724781358</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03200057387224515</v>
+        <v>0.03603750551522663</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>627475137.3256804</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2802305084.971317</v>
+        <v>2583039300.755544</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1600531374494404</v>
+        <v>0.1784529320188371</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04128037138825626</v>
+        <v>0.04516393744780751</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>119</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1401152554.948115</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1143170303.520051</v>
+        <v>1240668920.759881</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09262552770196956</v>
+        <v>0.1000397151960739</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02474626695835702</v>
+        <v>0.02085799705896712</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>571585166.1513323</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>880745407.2263952</v>
+        <v>1092915438.252616</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08896499537581311</v>
+        <v>0.09047519951808793</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04090407698213254</v>
+        <v>0.03111480465651776</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>440372748.343216</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1963838864.256519</v>
+        <v>2361939392.054895</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1766923395405946</v>
+        <v>0.1740291830039569</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02517402610616775</v>
+        <v>0.01857991644696365</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>101</v>
-      </c>
-      <c r="J36" t="n">
-        <v>981919497.0782717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2110505741.905187</v>
+        <v>2914541669.416716</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09110028367086853</v>
+        <v>0.07734924605644743</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03180595396196407</v>
+        <v>0.03692870803945161</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>108</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1055252913.456775</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1405080036.029237</v>
+        <v>2102568017.473893</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1164360733354645</v>
+        <v>0.1050308331418614</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03673617056515113</v>
+        <v>0.03168369006192193</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>702540080.690835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1771445140.926369</v>
+        <v>1588693868.506772</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1570904631357679</v>
+        <v>0.1191607482350092</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02336376654520863</v>
+        <v>0.03141833764634181</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>885722599.7022022</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1434489026.289805</v>
+        <v>1813811501.571707</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09996064039434617</v>
+        <v>0.1570659045822091</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05902101236065612</v>
+        <v>0.05839255193271927</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>717244495.7654672</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2087364076.398549</v>
+        <v>1860318463.75029</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132469468320878</v>
+        <v>0.1054233834380981</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02860382469549718</v>
+        <v>0.02961473050877906</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>103</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1043682103.931286</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2906705574.266376</v>
+        <v>3831508638.216699</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1124557758730077</v>
+        <v>0.1273696247405595</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04228428816490869</v>
+        <v>0.03576976081604527</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1453352741.153201</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2499997786.065258</v>
+        <v>2318304860.468636</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1404398965968932</v>
+        <v>0.1355395973582448</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01680214272777275</v>
+        <v>0.02549467023027822</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>141</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1249998941.721405</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1598476988.972811</v>
+        <v>1750069022.511111</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09027743560291911</v>
+        <v>0.07251303447961381</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02433187363501544</v>
+        <v>0.03393960138534997</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>799238520.7361088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1745334276.930834</v>
+        <v>2225850009.155915</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1917732355517399</v>
+        <v>0.1736147695080271</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04582383793877941</v>
+        <v>0.04651715766819216</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>872667103.7162119</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5047756303.704794</v>
+        <v>3456425673.08358</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1698953466774937</v>
+        <v>0.1338926549967893</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04050800809477471</v>
+        <v>0.05188240905250326</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>143</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2523878181.385094</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3622452743.53538</v>
+        <v>4975681293.016785</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1734643744013099</v>
+        <v>0.1789222277351578</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05427534912698767</v>
+        <v>0.04869733040473551</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>109</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1811226349.515993</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3578003442.017879</v>
+        <v>3388566913.367323</v>
       </c>
       <c r="F48" t="n">
-        <v>0.107282287599992</v>
+        <v>0.090179314917607</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03876335015424239</v>
+        <v>0.03131622750263255</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1789001779.950099</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1532496008.197171</v>
+        <v>1631702894.04744</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1395656386119679</v>
+        <v>0.1807363349120236</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0366456013527383</v>
+        <v>0.03865007024867947</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>766248031.0953015</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2720929915.204342</v>
+        <v>3734257571.749403</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1592349979591869</v>
+        <v>0.1264626895196843</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04718848721945815</v>
+        <v>0.03920198594686168</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>138</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1360465037.291703</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1328578004.992787</v>
+        <v>1048575200.552916</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1711383095493779</v>
+        <v>0.1567001027160508</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04410285430511825</v>
+        <v>0.04115661887300415</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>664289033.2240899</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4437575742.263034</v>
+        <v>4478261941.589522</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1093742771886861</v>
+        <v>0.1145987165095289</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04195039380117407</v>
+        <v>0.06087206545044393</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>166</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2218787901.87095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2658603968.244838</v>
+        <v>2898729124.721287</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1902413710553072</v>
+        <v>0.2034327861035807</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03073946175005889</v>
+        <v>0.02922949324318896</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1329302040.16645</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3854303170.988096</v>
+        <v>3439381473.729778</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1435214054751868</v>
+        <v>0.1247035597068003</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04411746256220309</v>
+        <v>0.05241559508098089</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>130</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1927151638.121114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4930196754.186588</v>
+        <v>4609973918.865517</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1953364843931925</v>
+        <v>0.2192773990094215</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02748963226161429</v>
+        <v>0.02598527416749716</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2465098393.055106</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1751517424.816641</v>
+        <v>1871067915.738291</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1324450455496695</v>
+        <v>0.1344553650350709</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04805041194100691</v>
+        <v>0.04684414119381211</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>875758717.4117017</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3326318924.740419</v>
+        <v>3064104691.904694</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1552482407366757</v>
+        <v>0.1733591753637347</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02391011612809368</v>
+        <v>0.0188435294717735</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>128</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1663159494.188145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1754045080.507953</v>
+        <v>1276315057.509645</v>
       </c>
       <c r="F58" t="n">
-        <v>0.174771854738231</v>
+        <v>0.1413513915644612</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03769835618146027</v>
+        <v>0.02840837583510081</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>877022548.2146723</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3631348631.184988</v>
+        <v>4576440673.558178</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08996043856993718</v>
+        <v>0.0823455987572583</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0348172029132363</v>
+        <v>0.04257716306167899</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1815674309.346335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2408115866.955913</v>
+        <v>2638993720.273067</v>
       </c>
       <c r="F60" t="n">
-        <v>0.149993056994811</v>
+        <v>0.1956008418918564</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0212698366417609</v>
+        <v>0.02089300371988847</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>125</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1204057941.756242</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3288530996.106244</v>
+        <v>2595187976.052224</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1787748267029562</v>
+        <v>0.1096535333291108</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02784500130694781</v>
+        <v>0.03016642071930735</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>139</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1644265451.325624</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1336812921.911065</v>
+        <v>2111711659.282616</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1868514224077621</v>
+        <v>0.1491726295255899</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04160275929076059</v>
+        <v>0.0390537975462757</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>668406419.5590013</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3572186312.41732</v>
+        <v>3760822331.039746</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07856110927557995</v>
+        <v>0.08801062774830136</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04319725016538509</v>
+        <v>0.03573118766260493</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1786093237.685614</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3605372669.618428</v>
+        <v>4672938461.224707</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1340718841843967</v>
+        <v>0.1710907785020933</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03381217798759746</v>
+        <v>0.03163488103561422</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>126</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1802686342.925743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4275785540.49173</v>
+        <v>3622722250.95991</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1575598248141427</v>
+        <v>0.1337631893672814</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02198230903866544</v>
+        <v>0.02679864224753556</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>144</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2137892772.388188</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5124797363.208808</v>
+        <v>3652562236.743948</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1153769607744955</v>
+        <v>0.1618900292362836</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05030946834133555</v>
+        <v>0.03110355539273387</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>119</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2562398715.435424</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3241912572.303549</v>
+        <v>3054403162.67202</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1019902819025943</v>
+        <v>0.08663845139896478</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04937480560006621</v>
+        <v>0.04829600319621513</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>129</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1620956283.951302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4211350985.959776</v>
+        <v>4309443851.061032</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1031524597187843</v>
+        <v>0.149908503728845</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04609024400309606</v>
+        <v>0.04120059322561848</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>130</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2105675501.593703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1534870321.875671</v>
+        <v>2330285295.014256</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1347314101379341</v>
+        <v>0.1834156396476148</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05406080065359715</v>
+        <v>0.05933119928525345</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>767435105.7953727</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2672770269.58957</v>
+        <v>2259634141.696495</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06759271252782856</v>
+        <v>0.09649208018508802</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03695659907166112</v>
+        <v>0.03777439222481819</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>115</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1336385090.462816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5583991382.090652</v>
+        <v>3661399055.6354</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1673305997563705</v>
+        <v>0.1363003472060797</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03385908692149701</v>
+        <v>0.02068096911596592</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>146</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2791995840.336177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1805170017.346136</v>
+        <v>1892796262.355886</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07823286829235677</v>
+        <v>0.1011926275876201</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03699178791538225</v>
+        <v>0.03293804047141761</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>902584986.4642416</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3309928050.373152</v>
+        <v>2827947316.357777</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09941178518219848</v>
+        <v>0.07810998068901581</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04564373563761746</v>
+        <v>0.04131692090961443</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>153</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1654963992.803018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3234794282.843346</v>
+        <v>3646306376.185823</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1702160835087713</v>
+        <v>0.1463086165380374</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03456363362811357</v>
+        <v>0.02139939913251081</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>137</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1617397186.534484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2328237787.985092</v>
+        <v>1828529715.707368</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1030232263428738</v>
+        <v>0.1098390180285041</v>
       </c>
       <c r="G75" t="n">
-        <v>0.027690891920424</v>
+        <v>0.02932442579762799</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1164118827.390131</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4104529561.078563</v>
+        <v>4540724530.676479</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1055594666732033</v>
+        <v>0.1065851312851131</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03193044692348392</v>
+        <v>0.02518644323754632</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2052264769.655191</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2181745832.026109</v>
+        <v>2162483722.076838</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1329938231857311</v>
+        <v>0.1496265444065502</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02130595623061513</v>
+        <v>0.0191371210075317</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1090873004.370389</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4166600682.809161</v>
+        <v>3225140447.274212</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1065120185911209</v>
+        <v>0.1263484209240578</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04735754677799084</v>
+        <v>0.03836916804870614</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>140</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2083300295.236861</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1264954977.106101</v>
+        <v>1683348966.500654</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1079091905723407</v>
+        <v>0.1474030536572445</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03325857225046916</v>
+        <v>0.03598287399199702</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>632477481.6715078</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5517689045.561803</v>
+        <v>5579271938.106577</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1042651625250226</v>
+        <v>0.07792203368368797</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03881814659224379</v>
+        <v>0.02676933071518402</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2758844597.753587</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5219717803.425241</v>
+        <v>4121636505.583991</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1082068329507625</v>
+        <v>0.09582508344127277</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02225451280424445</v>
+        <v>0.02345037121376391</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2609858910.232013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3429482835.350897</v>
+        <v>4751608312.843129</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2079343410635763</v>
+        <v>0.1994430605522539</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02138197689011084</v>
+        <v>0.02642010628666637</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>142</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1714741489.289984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2368794610.132116</v>
+        <v>2161540860.159616</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09732749563305637</v>
+        <v>0.131110544226938</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03580944532139071</v>
+        <v>0.04138610625591106</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1184397336.31089</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2195728833.834874</v>
+        <v>2583813053.643711</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1145161423072269</v>
+        <v>0.09772173776831558</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04941572848153903</v>
+        <v>0.03300749994605136</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1097864393.247829</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2307156324.28241</v>
+        <v>2841432973.992807</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1494225088130152</v>
+        <v>0.1606241841801945</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03495098063724895</v>
+        <v>0.0521258396696281</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>152</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1153578145.844127</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2567177204.025553</v>
+        <v>2411575280.780453</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1431431862661886</v>
+        <v>0.1446517645811755</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02040602353482252</v>
+        <v>0.01954130264828869</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1283588708.523512</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1312565232.593524</v>
+        <v>1157811505.970155</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1242308156618134</v>
+        <v>0.1446973310566299</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03074300525870068</v>
+        <v>0.03794797133499781</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>656282700.7420976</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3388244535.64912</v>
+        <v>2916650201.177114</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1389354023430412</v>
+        <v>0.162934497512968</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02792959783920225</v>
+        <v>0.03432854033886128</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>158</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1694122336.649012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2863604249.656403</v>
+        <v>3182007345.514975</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1328142332865218</v>
+        <v>0.1362859126121632</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03533554489254247</v>
+        <v>0.03146055679741153</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>135</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1431802172.944196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1797826762.78216</v>
+        <v>1413547989.772189</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09699649187411007</v>
+        <v>0.1299649454345825</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04077796364856087</v>
+        <v>0.04255342503974244</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>898913414.6791331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1479805946.005274</v>
+        <v>1653864013.541509</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1585938241970689</v>
+        <v>0.1384401148858271</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05737704719786285</v>
+        <v>0.06199607699968277</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>739903014.6158193</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2007426923.241802</v>
+        <v>2353467788.606567</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06864636517047747</v>
+        <v>0.1020126075151038</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03340145579136893</v>
+        <v>0.0462507451644659</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>114</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1003713408.362952</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3513686158.116697</v>
+        <v>4072145096.096151</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09479269248134191</v>
+        <v>0.1170132210885114</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04920520545329463</v>
+        <v>0.04467533381163238</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1756843111.137409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2201666095.001593</v>
+        <v>2328047916.203968</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1591173779709381</v>
+        <v>0.138075316836799</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03675141520890635</v>
+        <v>0.03424380604642914</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1100833072.125961</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2236445550.229164</v>
+        <v>2448703398.823895</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1008354212134225</v>
+        <v>0.08872388299292304</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05146957283392452</v>
+        <v>0.03318442184308428</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>97</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1118222830.369675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2110390038.971079</v>
+        <v>2149014749.874709</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09417995331077758</v>
+        <v>0.09614561002763149</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0295902077750894</v>
+        <v>0.04230412647228836</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1055194994.690531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4726123850.408332</v>
+        <v>4204966394.827383</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1301350292522832</v>
+        <v>0.1420929339258156</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02051715420233665</v>
+        <v>0.02751349251494973</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>129</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2363062040.004954</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2793901398.348831</v>
+        <v>2554274679.256842</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1079033443513225</v>
+        <v>0.08048457084215911</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02116053138407215</v>
+        <v>0.02773997305505041</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1396950669.890059</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3279940210.597533</v>
+        <v>2835402493.535557</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1205032247533057</v>
+        <v>0.1431536178144725</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03129047497910455</v>
+        <v>0.0231201399846593</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>126</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1639970111.530214</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3248573494.347784</v>
+        <v>4556477408.042507</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1520047433511684</v>
+        <v>0.1541138275509785</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02363765443658021</v>
+        <v>0.0201757600008722</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1624286757.883579</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2218956965.316354</v>
+        <v>2238316347.428179</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2191415037315871</v>
+        <v>0.152848275142308</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04275883685690593</v>
+        <v>0.04440121229080517</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>163</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1109478468.554822</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_403.xlsx
+++ b/output/fit_clients/fit_round_403.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1882162441.358456</v>
+        <v>2129904303.397214</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09938853756263187</v>
+        <v>0.08424465934135116</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03207948142309926</v>
+        <v>0.0385779707202789</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2085252033.765622</v>
+        <v>1962055963.425316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1620759346755331</v>
+        <v>0.1513186147922943</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04604685206783225</v>
+        <v>0.04329835826664007</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4849591130.429996</v>
+        <v>3822116847.160338</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1047352480733798</v>
+        <v>0.1541994639193311</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03100448858763749</v>
+        <v>0.02376868631355937</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4252637772.223801</v>
+        <v>3379542850.099452</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1041484864850989</v>
+        <v>0.09598668125473647</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04467189074879849</v>
+        <v>0.03210314125527998</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2681170250.334893</v>
+        <v>1931867218.493904</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1324321846457892</v>
+        <v>0.1280449305125957</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04372788178626135</v>
+        <v>0.05135208589613968</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2308992533.632751</v>
+        <v>3089904595.384924</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06727841888345873</v>
+        <v>0.08677977458373662</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03141804673125663</v>
+        <v>0.04970903931819816</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3906223712.265249</v>
+        <v>3552741052.867021</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2199880811340997</v>
+        <v>0.1464451766037821</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02933662682815284</v>
+        <v>0.02162723234527855</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1841540230.054248</v>
+        <v>1565784948.506547</v>
       </c>
       <c r="F9" t="n">
-        <v>0.185413510722942</v>
+        <v>0.1346574287926826</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02752699603419157</v>
+        <v>0.02869462592490396</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3791518576.319313</v>
+        <v>5283143272.053127</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1576874334187473</v>
+        <v>0.1823945170925692</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03903980454989692</v>
+        <v>0.04313823948415773</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3834468211.691381</v>
+        <v>4199758748.784052</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1381734917944522</v>
+        <v>0.185288368871557</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04043496040117378</v>
+        <v>0.04190533012463014</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3108657108.90152</v>
+        <v>2360741709.622298</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1501499854063623</v>
+        <v>0.1586218042524539</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04583413210714918</v>
+        <v>0.0455743154558586</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4276063446.939446</v>
+        <v>5021401132.058594</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07737150759320521</v>
+        <v>0.0791420618262608</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02587801333119567</v>
+        <v>0.02552007266924173</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2852186837.963162</v>
+        <v>2721978882.144576</v>
       </c>
       <c r="F14" t="n">
-        <v>0.174412396518301</v>
+        <v>0.1545112966778541</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03820079187076256</v>
+        <v>0.04394419634152159</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1251516149.590821</v>
+        <v>1837074826.3161</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1042580700235218</v>
+        <v>0.09735568885403253</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04867953305687608</v>
+        <v>0.03789511701455956</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2591587585.813704</v>
+        <v>2296472327.057401</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1103091794001917</v>
+        <v>0.07150832540325519</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05090538096627447</v>
+        <v>0.04199519628126731</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3341227508.618509</v>
+        <v>3397131672.161429</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1134681244998669</v>
+        <v>0.1649628152786795</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03319854520224318</v>
+        <v>0.04705397904619513</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3540119032.301598</v>
+        <v>3740777204.307075</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1316743632590457</v>
+        <v>0.1327235487037953</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02499146384375859</v>
+        <v>0.02750051292657351</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1224465803.067266</v>
+        <v>1117714075.328862</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1602874540726707</v>
+        <v>0.1422275206926932</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02477156538531399</v>
+        <v>0.02201593654926612</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1725573864.018946</v>
+        <v>2684385976.490858</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1225922322507313</v>
+        <v>0.1120788276886115</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01927802243242436</v>
+        <v>0.01996284175180823</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2624032163.565852</v>
+        <v>2166061524.764123</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09936765843512455</v>
+        <v>0.09261105704224806</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03815525748825713</v>
+        <v>0.02785294017435392</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3211786309.034819</v>
+        <v>3832986465.950165</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1130104010204703</v>
+        <v>0.1107449067831615</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03577503268719649</v>
+        <v>0.0403187461608365</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1442468182.45311</v>
+        <v>1094922402.799257</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1362982428433626</v>
+        <v>0.1554182992314291</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03967274291550965</v>
+        <v>0.04758902181295908</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2580350846.297317</v>
+        <v>2663584820.862157</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1228133417467543</v>
+        <v>0.1437454852299987</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02281720210957725</v>
+        <v>0.02341555739148564</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1418979566.51208</v>
+        <v>1420752066.030204</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08487128630534273</v>
+        <v>0.08380939112348652</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0282768423914851</v>
+        <v>0.02085856438730775</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>920237640.8186702</v>
+        <v>1444576026.236081</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1090350638592802</v>
+        <v>0.08008369194171011</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03610206420950589</v>
+        <v>0.03516076427687864</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2841805468.096245</v>
+        <v>4554222591.773103</v>
       </c>
       <c r="F27" t="n">
-        <v>0.136519197203214</v>
+        <v>0.1434669221864462</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02417914286079784</v>
+        <v>0.0266892953469377</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3239221829.861809</v>
+        <v>2741280045.045928</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1405554613326581</v>
+        <v>0.1191575745063755</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04943428704904745</v>
+        <v>0.04171129997635491</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5783790065.238085</v>
+        <v>4952091150.822878</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1291612905923943</v>
+        <v>0.1015860765299111</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03359649366554016</v>
+        <v>0.03157672508740991</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1888108900.110791</v>
+        <v>2020745936.67113</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09627178571947835</v>
+        <v>0.1207379720465068</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02646321816304535</v>
+        <v>0.03907576986777517</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1115388418.795406</v>
+        <v>1235925505.996262</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0790179661623427</v>
+        <v>0.07570833342535496</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04746210972307623</v>
+        <v>0.03462925280295681</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1350281086.962312</v>
+        <v>1288337783.985414</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07883232724781358</v>
+        <v>0.1085714211800577</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03603750551522663</v>
+        <v>0.02784001105444808</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2583039300.755544</v>
+        <v>2634610675.75247</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1784529320188371</v>
+        <v>0.201780233387881</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04516393744780751</v>
+        <v>0.03968500633136407</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1240668920.759881</v>
+        <v>1405292058.480818</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1000397151960739</v>
+        <v>0.09693832879307554</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02085799705896712</v>
+        <v>0.0253629232188537</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1092915438.252616</v>
+        <v>977095564.2934142</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09047519951808793</v>
+        <v>0.08613519895593175</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03111480465651776</v>
+        <v>0.03479366215281999</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2361939392.054895</v>
+        <v>3075325864.102401</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1740291830039569</v>
+        <v>0.1195913286914988</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01857991644696365</v>
+        <v>0.01837530241981515</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2914541669.416716</v>
+        <v>2199356585.047308</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07734924605644743</v>
+        <v>0.07764274433829235</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03692870803945161</v>
+        <v>0.03869739481221874</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2102568017.473893</v>
+        <v>1643979368.23793</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1050308331418614</v>
+        <v>0.1101333746401562</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03168369006192193</v>
+        <v>0.03211944482605155</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1588693868.506772</v>
+        <v>1832406867.900227</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1191607482350092</v>
+        <v>0.1271088542204027</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03141833764634181</v>
+        <v>0.02033037527328518</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1813811501.571707</v>
+        <v>1706354576.053016</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1570659045822091</v>
+        <v>0.1135770992331474</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05839255193271927</v>
+        <v>0.04226899152137136</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1860318463.75029</v>
+        <v>2323483746.296227</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1054233834380981</v>
+        <v>0.1029881931389025</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02961473050877906</v>
+        <v>0.03442182965247034</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3831508638.216699</v>
+        <v>4348687398.924944</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1273696247405595</v>
+        <v>0.1131711332830127</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03576976081604527</v>
+        <v>0.04398557153475954</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2318304860.468636</v>
+        <v>2918893260.851472</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1355395973582448</v>
+        <v>0.1959334556849154</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02549467023027822</v>
+        <v>0.02364587248170607</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1750069022.511111</v>
+        <v>1680960535.959087</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07251303447961381</v>
+        <v>0.07892613058890714</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03393960138534997</v>
+        <v>0.02417116883931269</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2225850009.155915</v>
+        <v>2150960913.729159</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1736147695080271</v>
+        <v>0.1882002422560229</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04651715766819216</v>
+        <v>0.04981560442974303</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3456425673.08358</v>
+        <v>4538544950.779317</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1338926549967893</v>
+        <v>0.1219372032734069</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05188240905250326</v>
+        <v>0.050141718417118</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4975681293.016785</v>
+        <v>4659621467.758795</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1789222277351578</v>
+        <v>0.1575745018666124</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04869733040473551</v>
+        <v>0.04414571555444089</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3388566913.367323</v>
+        <v>4129926577.943692</v>
       </c>
       <c r="F48" t="n">
-        <v>0.090179314917607</v>
+        <v>0.08083627311895422</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03131622750263255</v>
+        <v>0.03535358649013073</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1631702894.04744</v>
+        <v>1715132275.516858</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1807363349120236</v>
+        <v>0.1821732513271764</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03865007024867947</v>
+        <v>0.0445658719919248</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3734257571.749403</v>
+        <v>3120636532.826445</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1264626895196843</v>
+        <v>0.1135728373024116</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03920198594686168</v>
+        <v>0.04891638780546291</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1048575200.552916</v>
+        <v>1364848199.086436</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1567001027160508</v>
+        <v>0.1587421360329871</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04115661887300415</v>
+        <v>0.03677507174830559</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4478261941.589522</v>
+        <v>4786571178.896802</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1145987165095289</v>
+        <v>0.1004220509178395</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06087206545044393</v>
+        <v>0.05943221419591994</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2898729124.721287</v>
+        <v>3272861684.506966</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2034327861035807</v>
+        <v>0.173291056394498</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02922949324318896</v>
+        <v>0.0312029733658416</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3439381473.729778</v>
+        <v>4671857096.586431</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1247035597068003</v>
+        <v>0.1361591752788879</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05241559508098089</v>
+        <v>0.05117925326110881</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4609973918.865517</v>
+        <v>4573228758.134458</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2192773990094215</v>
+        <v>0.1398703369041743</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02598527416749716</v>
+        <v>0.02386401092122608</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1871067915.738291</v>
+        <v>1276993947.238594</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1344553650350709</v>
+        <v>0.1241366674862961</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04684414119381211</v>
+        <v>0.03894396890294324</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3064104691.904694</v>
+        <v>3530720941.164592</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1733591753637347</v>
+        <v>0.1719161552055215</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0188435294717735</v>
+        <v>0.02011240682889847</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1276315057.509645</v>
+        <v>1803264462.774979</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1413513915644612</v>
+        <v>0.1908364628080006</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02840837583510081</v>
+        <v>0.02458653807147968</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4576440673.558178</v>
+        <v>5065221339.16005</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0823455987572583</v>
+        <v>0.08312711552452431</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04257716306167899</v>
+        <v>0.04437603754590007</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2638993720.273067</v>
+        <v>2699339166.770634</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1956008418918564</v>
+        <v>0.15402764845801</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02089300371988847</v>
+        <v>0.02569261767185385</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2595187976.052224</v>
+        <v>2818633368.886199</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1096535333291108</v>
+        <v>0.1601612187855822</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03016642071930735</v>
+        <v>0.03035798554383614</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2111711659.282616</v>
+        <v>1924447379.221375</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1491726295255899</v>
+        <v>0.1348133763576888</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0390537975462757</v>
+        <v>0.0360108340306098</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3760822331.039746</v>
+        <v>5048630251.553885</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08801062774830136</v>
+        <v>0.09822024584730663</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03573118766260493</v>
+        <v>0.04424880969180236</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4672938461.224707</v>
+        <v>4387049533.552508</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1710907785020933</v>
+        <v>0.1657261522335223</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03163488103561422</v>
+        <v>0.02197686870272149</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3622722250.95991</v>
+        <v>3927995647.0634</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1337631893672814</v>
+        <v>0.1576065176495619</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02679864224753556</v>
+        <v>0.02563683814329823</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3652562236.743948</v>
+        <v>4675802921.132078</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1618900292362836</v>
+        <v>0.1033780187596808</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03110355539273387</v>
+        <v>0.04211243887838157</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3054403162.67202</v>
+        <v>2252422128.565175</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08663845139896478</v>
+        <v>0.08312237109668065</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04829600319621513</v>
+        <v>0.05054890188541185</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4309443851.061032</v>
+        <v>4657353556.374887</v>
       </c>
       <c r="F68" t="n">
-        <v>0.149908503728845</v>
+        <v>0.1347295009957308</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04120059322561848</v>
+        <v>0.04663652084855227</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2330285295.014256</v>
+        <v>2477816344.73489</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1834156396476148</v>
+        <v>0.1246968028833136</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05933119928525345</v>
+        <v>0.05765554263365452</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2259634141.696495</v>
+        <v>2835978517.446152</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09649208018508802</v>
+        <v>0.06949577657661453</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03777439222481819</v>
+        <v>0.03641984949586387</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3661399055.6354</v>
+        <v>5565652398.265592</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1363003472060797</v>
+        <v>0.1336065170383901</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02068096911596592</v>
+        <v>0.02876148434320179</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1892796262.355886</v>
+        <v>1930642441.27316</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1011926275876201</v>
+        <v>0.1057652180653694</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03293804047141761</v>
+        <v>0.05005954266565595</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2827947316.357777</v>
+        <v>2700977966.706281</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07810998068901581</v>
+        <v>0.08148700875863854</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04131692090961443</v>
+        <v>0.04518024929468123</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3646306376.185823</v>
+        <v>3693321885.305648</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1463086165380374</v>
+        <v>0.1446745136867518</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02139939913251081</v>
+        <v>0.02159846445237807</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1828529715.707368</v>
+        <v>2340771312.727713</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1098390180285041</v>
+        <v>0.1183661068118724</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02932442579762799</v>
+        <v>0.03697056673129438</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4540724530.676479</v>
+        <v>3470866347.228085</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1065851312851131</v>
+        <v>0.1119631302960647</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02518644323754632</v>
+        <v>0.02140401754189126</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2162483722.076838</v>
+        <v>2004672238.964137</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1496265444065502</v>
+        <v>0.1539502898477034</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0191371210075317</v>
+        <v>0.02252684823993193</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3225140447.274212</v>
+        <v>4247797689.908897</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1263484209240578</v>
+        <v>0.09673858298284041</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03836916804870614</v>
+        <v>0.04662890558457288</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1683348966.500654</v>
+        <v>1733305907.825819</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1474030536572445</v>
+        <v>0.1561540718870918</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03598287399199702</v>
+        <v>0.0374847002062073</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5579271938.106577</v>
+        <v>4586171226.218368</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07792203368368797</v>
+        <v>0.08096807539972294</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02676933071518402</v>
+        <v>0.02372102444830187</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4121636505.583991</v>
+        <v>4731830822.386832</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09582508344127277</v>
+        <v>0.113736872874729</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02345037121376391</v>
+        <v>0.02626138570525792</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4751608312.843129</v>
+        <v>3612902713.449409</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1994430605522539</v>
+        <v>0.1988677713798106</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02642010628666637</v>
+        <v>0.02265261146403814</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2161540860.159616</v>
+        <v>1534219909.724807</v>
       </c>
       <c r="F83" t="n">
-        <v>0.131110544226938</v>
+        <v>0.1181146835737454</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04138610625591106</v>
+        <v>0.04167338627896711</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2583813053.643711</v>
+        <v>1899368625.176563</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09772173776831558</v>
+        <v>0.09284912485878465</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03300749994605136</v>
+        <v>0.04864903644276251</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2841432973.992807</v>
+        <v>3266181521.044635</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1606241841801945</v>
+        <v>0.1474058118897293</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0521258396696281</v>
+        <v>0.04197335878178423</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2411575280.780453</v>
+        <v>2506531646.470018</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1446517645811755</v>
+        <v>0.1665631748663507</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01954130264828869</v>
+        <v>0.02110548854721306</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1157811505.970155</v>
+        <v>1247561848.6392</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1446973310566299</v>
+        <v>0.114746734051511</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03794797133499781</v>
+        <v>0.02794527940851634</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2916650201.177114</v>
+        <v>2688581420.331607</v>
       </c>
       <c r="F88" t="n">
-        <v>0.162934497512968</v>
+        <v>0.1665945302029213</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03432854033886128</v>
+        <v>0.02969885259258908</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3182007345.514975</v>
+        <v>3513844359.122765</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1362859126121632</v>
+        <v>0.1002670479686358</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03146055679741153</v>
+        <v>0.03875785938736675</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1413547989.772189</v>
+        <v>1435813158.524526</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1299649454345825</v>
+        <v>0.09158556283753545</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04255342503974244</v>
+        <v>0.0521108535055849</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1653864013.541509</v>
+        <v>1302315941.754169</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1384401148858271</v>
+        <v>0.1409461020822385</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06199607699968277</v>
+        <v>0.05292939221116697</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2353467788.606567</v>
+        <v>2260444614.294139</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1020126075151038</v>
+        <v>0.07154523702870116</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0462507451644659</v>
+        <v>0.04525840649316416</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4072145096.096151</v>
+        <v>4947124647.986193</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1170132210885114</v>
+        <v>0.1288795936382351</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04467533381163238</v>
+        <v>0.05116546474857937</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2328047916.203968</v>
+        <v>2032693285.998685</v>
       </c>
       <c r="F94" t="n">
-        <v>0.138075316836799</v>
+        <v>0.1670583355105396</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03424380604642914</v>
+        <v>0.04084928602447575</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2448703398.823895</v>
+        <v>2202758293.953784</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08872388299292304</v>
+        <v>0.1088323367214762</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03318442184308428</v>
+        <v>0.04757645927257698</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2149014749.874709</v>
+        <v>1633600233.74707</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09614561002763149</v>
+        <v>0.1210015919364494</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04230412647228836</v>
+        <v>0.03039786637160511</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4204966394.827383</v>
+        <v>4552788044.800639</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1420929339258156</v>
+        <v>0.1482160443953242</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02751349251494973</v>
+        <v>0.02385951557652421</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2554274679.256842</v>
+        <v>2754892392.97255</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08048457084215911</v>
+        <v>0.1015168067860297</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02773997305505041</v>
+        <v>0.03108762158502966</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2835402493.535557</v>
+        <v>2721711792.664164</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1431536178144725</v>
+        <v>0.1155237160741389</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0231201399846593</v>
+        <v>0.02186847349339024</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4556477408.042507</v>
+        <v>4030439001.113232</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1541138275509785</v>
+        <v>0.1207031515873065</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0201757600008722</v>
+        <v>0.02086495218629146</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2238316347.428179</v>
+        <v>3518443482.791746</v>
       </c>
       <c r="F101" t="n">
-        <v>0.152848275142308</v>
+        <v>0.2160501036876478</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04440121229080517</v>
+        <v>0.05464550866039835</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_403.xlsx
+++ b/output/fit_clients/fit_round_403.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2129904303.397214</v>
+        <v>1624061450.617668</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08424465934135116</v>
+        <v>0.1090943306804716</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0385779707202789</v>
+        <v>0.03049019856263974</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1962055963.425316</v>
+        <v>1628267164.372411</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1513186147922943</v>
+        <v>0.1486525450899604</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04329835826664007</v>
+        <v>0.04904487287853688</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3822116847.160338</v>
+        <v>3370928092.744665</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1541994639193311</v>
+        <v>0.1352349464558836</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02376868631355937</v>
+        <v>0.03632197334552109</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>205</v>
+      </c>
+      <c r="J4" t="n">
+        <v>402</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37.60232429994849</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3379542850.099452</v>
+        <v>3308745813.623008</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09598668125473647</v>
+        <v>0.08773451065587493</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03210314125527998</v>
+        <v>0.04746890770281435</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>164</v>
+      </c>
+      <c r="J5" t="n">
+        <v>399</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1931867218.493904</v>
+        <v>2651523599.376852</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1280449305125957</v>
+        <v>0.1229040883567797</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05135208589613968</v>
+        <v>0.04712691486470466</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3089904595.384924</v>
+        <v>2785007039.744624</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08677977458373662</v>
+        <v>0.07973208704792449</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04970903931819816</v>
+        <v>0.03687974245884319</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3552741052.867021</v>
+        <v>2663477275.011631</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1464451766037821</v>
+        <v>0.1494390886963715</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02162723234527855</v>
+        <v>0.02721401056760786</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>109</v>
+      </c>
+      <c r="J8" t="n">
+        <v>398</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1565784948.506547</v>
+        <v>2193549598.517494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1346574287926826</v>
+        <v>0.1642854872227633</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02869462592490396</v>
+        <v>0.02806398158961625</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5283143272.053127</v>
+        <v>5033556704.781566</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1823945170925692</v>
+        <v>0.1815836669835445</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04313823948415773</v>
+        <v>0.04608653837548097</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>325</v>
+      </c>
+      <c r="J10" t="n">
+        <v>403</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4199758748.784052</v>
+        <v>3310812426.563348</v>
       </c>
       <c r="F11" t="n">
-        <v>0.185288368871557</v>
+        <v>0.1522920380059752</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04190533012463014</v>
+        <v>0.04785252832293106</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>169</v>
+      </c>
+      <c r="J11" t="n">
+        <v>400</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2360741709.622298</v>
+        <v>3210108126.020776</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1586218042524539</v>
+        <v>0.1680184619412032</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0455743154558586</v>
+        <v>0.03824365431540394</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5021401132.058594</v>
+        <v>4220812841.40355</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0791420618262608</v>
+        <v>0.07748078407461989</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02552007266924173</v>
+        <v>0.02905490619187025</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>210</v>
+      </c>
+      <c r="J13" t="n">
+        <v>403</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +923,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2721978882.144576</v>
+        <v>3243541691.058944</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1545112966778541</v>
+        <v>0.1647910317114518</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04394419634152159</v>
+        <v>0.03619503728592775</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>401</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1837074826.3161</v>
+        <v>1772395442.279565</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09735568885403253</v>
+        <v>0.09106894553460074</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03789511701455956</v>
+        <v>0.03116602448755124</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2296472327.057401</v>
+        <v>2230198987.217382</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07150832540325519</v>
+        <v>0.1090153210714821</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04199519628126731</v>
+        <v>0.03837532916365059</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1022,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3397131672.161429</v>
+        <v>3742721480.650295</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1649628152786795</v>
+        <v>0.1551902247153158</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04705397904619513</v>
+        <v>0.04720039273834536</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>194</v>
+      </c>
+      <c r="J17" t="n">
+        <v>403</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1063,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3740777204.307075</v>
+        <v>3212644371.613494</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1327235487037953</v>
+        <v>0.1507018244419505</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02750051292657351</v>
+        <v>0.02970089157605323</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>100</v>
+      </c>
+      <c r="J18" t="n">
+        <v>403</v>
+      </c>
+      <c r="K18" t="n">
+        <v>49.00180677712573</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1117714075.328862</v>
+        <v>1187818644.449128</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1422275206926932</v>
+        <v>0.175260858430917</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02201593654926612</v>
+        <v>0.01960961433885134</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2684385976.490858</v>
+        <v>1845593826.831658</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1120788276886115</v>
+        <v>0.1345458068799162</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01996284175180823</v>
+        <v>0.01999037957028338</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2166061524.764123</v>
+        <v>2687664896.997359</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09261105704224806</v>
+        <v>0.092806311009668</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02785294017435392</v>
+        <v>0.03650131808710072</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1199,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3832986465.950165</v>
+        <v>2746802995.934176</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1107449067831615</v>
+        <v>0.09371662205061355</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0403187461608365</v>
+        <v>0.05325991059272599</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>112</v>
+      </c>
+      <c r="J22" t="n">
+        <v>402</v>
+      </c>
+      <c r="K22" t="n">
+        <v>33.6468970845935</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1094922402.799257</v>
+        <v>1420840853.222143</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1554182992314291</v>
+        <v>0.1662365666336314</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04758902181295908</v>
+        <v>0.05080172495849974</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2663584820.862157</v>
+        <v>3662014043.110533</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1437454852299987</v>
+        <v>0.09233157591021995</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02341555739148564</v>
+        <v>0.02642115701929708</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>126</v>
+      </c>
+      <c r="J24" t="n">
+        <v>403</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1420752066.030204</v>
+        <v>1011842370.474261</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08380939112348652</v>
+        <v>0.08600108529712065</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02085856438730775</v>
+        <v>0.02429537020856812</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1444576026.236081</v>
+        <v>1342771439.862165</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08008369194171011</v>
+        <v>0.1182781486630499</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03516076427687864</v>
+        <v>0.031875788483225</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4554222591.773103</v>
+        <v>3295537183.546604</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1434669221864462</v>
+        <v>0.1433643485099481</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0266892953469377</v>
+        <v>0.02307949229885</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>169</v>
+      </c>
+      <c r="J27" t="n">
+        <v>402</v>
+      </c>
+      <c r="K27" t="n">
+        <v>39.88702035756555</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2741280045.045928</v>
+        <v>2450077665.105214</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1191575745063755</v>
+        <v>0.1071365631880957</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04171129997635491</v>
+        <v>0.04713232943537515</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>98</v>
+      </c>
+      <c r="J28" t="n">
+        <v>402</v>
+      </c>
+      <c r="K28" t="n">
+        <v>28.72667838899357</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4952091150.822878</v>
+        <v>3649662635.416922</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1015860765299111</v>
+        <v>0.1151821681692838</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03157672508740991</v>
+        <v>0.04499453826192</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>341</v>
+      </c>
+      <c r="J29" t="n">
+        <v>402</v>
+      </c>
+      <c r="K29" t="n">
+        <v>44.13132481912712</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2020745936.67113</v>
+        <v>2238825353.008884</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1207379720465068</v>
+        <v>0.0956220939510707</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03907576986777517</v>
+        <v>0.02661477446700707</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1235925505.996262</v>
+        <v>1489325153.333935</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07570833342535496</v>
+        <v>0.09232685220767632</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03462925280295681</v>
+        <v>0.03567341345502298</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1288337783.985414</v>
+        <v>1258364842.567458</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1085714211800577</v>
+        <v>0.1065738211469623</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02784001105444808</v>
+        <v>0.02946273495358868</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2634610675.75247</v>
+        <v>2742287740.080338</v>
       </c>
       <c r="F33" t="n">
-        <v>0.201780233387881</v>
+        <v>0.1764941419884706</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03968500633136407</v>
+        <v>0.03718013677747616</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1405292058.480818</v>
+        <v>1516260422.217776</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09693832879307554</v>
+        <v>0.08421702997769556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0253629232188537</v>
+        <v>0.02788532195805427</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>977095564.2934142</v>
+        <v>848867384.0236834</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08613519895593175</v>
+        <v>0.07439651898156878</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03479366215281999</v>
+        <v>0.03280332236742396</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3075325864.102401</v>
+        <v>2895843776.325735</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1195913286914988</v>
+        <v>0.1462905472906536</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01837530241981515</v>
+        <v>0.02455444418595179</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2199356585.047308</v>
+        <v>2173100555.245266</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07764274433829235</v>
+        <v>0.07603237884363302</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03869739481221874</v>
+        <v>0.0395176358972141</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1643979368.23793</v>
+        <v>2158870890.660358</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1101333746401562</v>
+        <v>0.1130753293598749</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03211944482605155</v>
+        <v>0.0352886237443907</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1832406867.900227</v>
+        <v>1775779621.681474</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1271088542204027</v>
+        <v>0.1875180443920903</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02033037527328518</v>
+        <v>0.03099720393085377</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1706354576.053016</v>
+        <v>1567970091.089638</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1135770992331474</v>
+        <v>0.1472937471905652</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04226899152137136</v>
+        <v>0.05991162592946428</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2323483746.296227</v>
+        <v>2426150644.618657</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1029881931389025</v>
+        <v>0.1431314498409738</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03442182965247034</v>
+        <v>0.02946296099193785</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1913,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4348687398.924944</v>
+        <v>2982874827.82906</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1131711332830127</v>
+        <v>0.07683909772414764</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04398557153475954</v>
+        <v>0.04662756403286469</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>173</v>
+      </c>
+      <c r="J42" t="n">
+        <v>399</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2918893260.851472</v>
+        <v>2693400697.097207</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1959334556849154</v>
+        <v>0.1814494773810841</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02364587248170607</v>
+        <v>0.02008784330805627</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1680960535.959087</v>
+        <v>1751131759.25354</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07892613058890714</v>
+        <v>0.08582035459633083</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02417116883931269</v>
+        <v>0.02981525934667418</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2150960913.729159</v>
+        <v>2000029815.468422</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1882002422560229</v>
+        <v>0.1468615320870755</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04981560442974303</v>
+        <v>0.05292672803910449</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4538544950.779317</v>
+        <v>5253567502.807389</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1219372032734069</v>
+        <v>0.107666985583962</v>
       </c>
       <c r="G46" t="n">
-        <v>0.050141718417118</v>
+        <v>0.05249692124972111</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>242</v>
+      </c>
+      <c r="J46" t="n">
+        <v>403</v>
+      </c>
+      <c r="K46" t="n">
+        <v>47.43908563795875</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4659621467.758795</v>
+        <v>3978619004.642602</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1575745018666124</v>
+        <v>0.1458651589870734</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04414571555444089</v>
+        <v>0.05458690280526081</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>181</v>
+      </c>
+      <c r="J47" t="n">
+        <v>402</v>
+      </c>
+      <c r="K47" t="n">
+        <v>43.85052722458358</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4129926577.943692</v>
+        <v>4045193183.931087</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08083627311895422</v>
+        <v>0.09026734374348729</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03535358649013073</v>
+        <v>0.03202515366179114</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>207</v>
+      </c>
+      <c r="J48" t="n">
+        <v>403</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1715132275.516858</v>
+        <v>1313914803.385099</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1821732513271764</v>
+        <v>0.1714057126551854</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0445658719919248</v>
+        <v>0.03301082678629282</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2197,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3120636532.826445</v>
+        <v>3503033575.76126</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1135728373024116</v>
+        <v>0.1524938903650345</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04891638780546291</v>
+        <v>0.04401922243358939</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>138</v>
+      </c>
+      <c r="J50" t="n">
+        <v>403</v>
+      </c>
+      <c r="K50" t="n">
+        <v>50.81582883746555</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1364848199.086436</v>
+        <v>1354856989.579736</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1587421360329871</v>
+        <v>0.1260247102281656</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03677507174830559</v>
+        <v>0.04977970828162685</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4786571178.896802</v>
+        <v>3933155637.175112</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1004220509178395</v>
+        <v>0.1314416116566435</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05943221419591994</v>
+        <v>0.05264194690166096</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>234</v>
+      </c>
+      <c r="J52" t="n">
+        <v>402</v>
+      </c>
+      <c r="K52" t="n">
+        <v>44.30087944091517</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3272861684.506966</v>
+        <v>2944858157.493857</v>
       </c>
       <c r="F53" t="n">
-        <v>0.173291056394498</v>
+        <v>0.1532080909518003</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0312029733658416</v>
+        <v>0.02683796441783499</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>55</v>
+      </c>
+      <c r="J53" t="n">
+        <v>401</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2341,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4671857096.586431</v>
+        <v>3929321118.266398</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1361591752788879</v>
+        <v>0.1098424973018248</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05117925326110881</v>
+        <v>0.03882411597428254</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>215</v>
+      </c>
+      <c r="J54" t="n">
+        <v>402</v>
+      </c>
+      <c r="K54" t="n">
+        <v>47.15259860413965</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4573228758.134458</v>
+        <v>4577532916.594704</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1398703369041743</v>
+        <v>0.2065492793906165</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02386401092122608</v>
+        <v>0.02254133861055567</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>195</v>
+      </c>
+      <c r="J55" t="n">
+        <v>403</v>
+      </c>
+      <c r="K55" t="n">
+        <v>50.84168171981419</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1276993947.238594</v>
+        <v>1285728519.066054</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1241366674862961</v>
+        <v>0.1414317352747402</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03894396890294324</v>
+        <v>0.03922556471209391</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3530720941.164592</v>
+        <v>4424333919.318879</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1719161552055215</v>
+        <v>0.1399376543171792</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02011240682889847</v>
+        <v>0.0219897462868576</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>172</v>
+      </c>
+      <c r="J57" t="n">
+        <v>403</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1803264462.774979</v>
+        <v>1352867279.931638</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1908364628080006</v>
+        <v>0.1646371543368155</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02458653807147968</v>
+        <v>0.03716676913656197</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5065221339.16005</v>
+        <v>3568643370.85593</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08312711552452431</v>
+        <v>0.08885551731983375</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04437603754590007</v>
+        <v>0.0341155522176552</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>197</v>
+      </c>
+      <c r="J59" t="n">
+        <v>403</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2549,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2699339166.770634</v>
+        <v>3073508132.630812</v>
       </c>
       <c r="F60" t="n">
-        <v>0.15402764845801</v>
+        <v>0.1414867205015651</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02569261767185385</v>
+        <v>0.02757492911011769</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>74</v>
+      </c>
+      <c r="J60" t="n">
+        <v>403</v>
+      </c>
+      <c r="K60" t="n">
+        <v>50.31130823038235</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2818633368.886199</v>
+        <v>2262075109.546849</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1601612187855822</v>
+        <v>0.1590441753705512</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03035798554383614</v>
+        <v>0.02429539611058832</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1924447379.221375</v>
+        <v>1406081321.906733</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1348133763576888</v>
+        <v>0.1641938810191843</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0360108340306098</v>
+        <v>0.0315289779047899</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5048630251.553885</v>
+        <v>4144666273.969828</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09822024584730663</v>
+        <v>0.1057705789051021</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04424880969180236</v>
+        <v>0.04003484869637984</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>200</v>
+      </c>
+      <c r="J63" t="n">
+        <v>403</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4387049533.552508</v>
+        <v>3619234635.514747</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1657261522335223</v>
+        <v>0.1380223492739762</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02197686870272149</v>
+        <v>0.02164779064239965</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>201</v>
+      </c>
+      <c r="J64" t="n">
+        <v>403</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3927995647.0634</v>
+        <v>3786519609.505913</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1576065176495619</v>
+        <v>0.1703888912492262</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02563683814329823</v>
+        <v>0.02223207416629651</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>298</v>
+      </c>
+      <c r="J65" t="n">
+        <v>402</v>
+      </c>
+      <c r="K65" t="n">
+        <v>46.03117466051448</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4675802921.132078</v>
+        <v>3930605890.853221</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1033780187596808</v>
+        <v>0.1351707726651014</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04211243887838157</v>
+        <v>0.0399779094478335</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>199</v>
+      </c>
+      <c r="J66" t="n">
+        <v>403</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2252422128.565175</v>
+        <v>3131253387.031517</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08312237109668065</v>
+        <v>0.0892812798682573</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05054890188541185</v>
+        <v>0.03803792005770414</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4657353556.374887</v>
+        <v>4130810466.560582</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1347295009957308</v>
+        <v>0.1396792227003988</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04663652084855227</v>
+        <v>0.03763938977174339</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>219</v>
+      </c>
+      <c r="J68" t="n">
+        <v>403</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2477816344.73489</v>
+        <v>1726092534.877251</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1246968028833136</v>
+        <v>0.1279891119996217</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05765554263365452</v>
+        <v>0.05020232966382399</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2835978517.446152</v>
+        <v>3157916010.886858</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06949577657661453</v>
+        <v>0.07265300356614594</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03641984949586387</v>
+        <v>0.04386582553055488</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5565652398.265592</v>
+        <v>3717116036.694057</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1336065170383901</v>
+        <v>0.1250137852788792</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02876148434320179</v>
+        <v>0.0332591243908879</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>285</v>
+      </c>
+      <c r="J71" t="n">
+        <v>403</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1930642441.27316</v>
+        <v>1837020029.14427</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1057652180653694</v>
+        <v>0.0822991250525702</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05005954266565595</v>
+        <v>0.04493550146856066</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2700977966.706281</v>
+        <v>3140138157.882208</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08148700875863854</v>
+        <v>0.112768977567557</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04518024929468123</v>
+        <v>0.03418318523391059</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3693321885.305648</v>
+        <v>3424963572.700056</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1446745136867518</v>
+        <v>0.1163775488183436</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02159846445237807</v>
+        <v>0.02287929272158125</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>113</v>
+      </c>
+      <c r="J74" t="n">
+        <v>393</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2340771312.727713</v>
+        <v>1902667868.07559</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1183661068118724</v>
+        <v>0.1017078518241284</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03697056673129438</v>
+        <v>0.02589707928216344</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3470866347.228085</v>
+        <v>4661927173.701936</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1119631302960647</v>
+        <v>0.09588888149262043</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02140401754189126</v>
+        <v>0.03206573226976852</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>191</v>
+      </c>
+      <c r="J76" t="n">
+        <v>402</v>
+      </c>
+      <c r="K76" t="n">
+        <v>45.9365033104263</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2004672238.964137</v>
+        <v>1394839316.965917</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1539502898477034</v>
+        <v>0.140922643919055</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02252684823993193</v>
+        <v>0.02204162230647045</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4247797689.908897</v>
+        <v>3705619029.031398</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09673858298284041</v>
+        <v>0.1186823668170344</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04662890558457288</v>
+        <v>0.04019370682358281</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>201</v>
+      </c>
+      <c r="J78" t="n">
+        <v>402</v>
+      </c>
+      <c r="K78" t="n">
+        <v>45.87079352323304</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1733305907.825819</v>
+        <v>1401831386.161152</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1561540718870918</v>
+        <v>0.1440963452595895</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0374847002062073</v>
+        <v>0.04059047128174453</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4586171226.218368</v>
+        <v>4117022477.52843</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08096807539972294</v>
+        <v>0.1118444522090595</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02372102444830187</v>
+        <v>0.03635448894827233</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>197</v>
+      </c>
+      <c r="J80" t="n">
+        <v>402</v>
+      </c>
+      <c r="K80" t="n">
+        <v>39.31948578024299</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4731830822.386832</v>
+        <v>3769681110.918952</v>
       </c>
       <c r="F81" t="n">
-        <v>0.113736872874729</v>
+        <v>0.1328722443882659</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02626138570525792</v>
+        <v>0.03118352206045421</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>187</v>
+      </c>
+      <c r="J81" t="n">
+        <v>403</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3612902713.449409</v>
+        <v>5508376005.334491</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1988677713798106</v>
+        <v>0.1499757730967312</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02265261146403814</v>
+        <v>0.02053837533663963</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>276</v>
+      </c>
+      <c r="J82" t="n">
+        <v>402</v>
+      </c>
+      <c r="K82" t="n">
+        <v>44.82172893170065</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1534219909.724807</v>
+        <v>1540582186.526476</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1181146835737454</v>
+        <v>0.1244909951157908</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04167338627896711</v>
+        <v>0.04075603046965161</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1899368625.176563</v>
+        <v>2008254498.065989</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09284912485878465</v>
+        <v>0.0985980155771588</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04864903644276251</v>
+        <v>0.04634650039976887</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3266181521.044635</v>
+        <v>3486989644.638387</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1474058118897293</v>
+        <v>0.1665236143924388</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04197335878178423</v>
+        <v>0.04156356255280341</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2506531646.470018</v>
+        <v>1940141586.669342</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1665631748663507</v>
+        <v>0.1561024543648639</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02110548854721306</v>
+        <v>0.01838735383263443</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1247561848.6392</v>
+        <v>1233181619.312898</v>
       </c>
       <c r="F87" t="n">
-        <v>0.114746734051511</v>
+        <v>0.1284343272391139</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02794527940851634</v>
+        <v>0.02829459600935592</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2688581420.331607</v>
+        <v>2743418731.105313</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1665945302029213</v>
+        <v>0.1213078984975336</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02969885259258908</v>
+        <v>0.03185608811432781</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3513844359.122765</v>
+        <v>2175426929.308885</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1002670479686358</v>
+        <v>0.1328064085977488</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03875785938736675</v>
+        <v>0.03987461234583817</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1435813158.524526</v>
+        <v>1541420654.027434</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09158556283753545</v>
+        <v>0.08875819903359354</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0521108535055849</v>
+        <v>0.05307666798505829</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1302315941.754169</v>
+        <v>2021370813.450268</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1409461020822385</v>
+        <v>0.1621278151830854</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05292939221116697</v>
+        <v>0.05237987726099413</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2260444614.294139</v>
+        <v>2108004902.241205</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07154523702870116</v>
+        <v>0.09206001716779558</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04525840649316416</v>
+        <v>0.04401466936815458</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4947124647.986193</v>
+        <v>4282064930.662299</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1288795936382351</v>
+        <v>0.1322165012597836</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05116546474857937</v>
+        <v>0.03710756107470441</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>193</v>
+      </c>
+      <c r="J93" t="n">
+        <v>402</v>
+      </c>
+      <c r="K93" t="n">
+        <v>46.06941838845957</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2032693285.998685</v>
+        <v>1747544749.298245</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1670583355105396</v>
+        <v>0.102838502703088</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04084928602447575</v>
+        <v>0.04219942477283851</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2202758293.953784</v>
+        <v>2846659608.514062</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1088323367214762</v>
+        <v>0.1263277182633601</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04757645927257698</v>
+        <v>0.03455912764994673</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1633600233.74707</v>
+        <v>1714518580.25955</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1210015919364494</v>
+        <v>0.1008056096190062</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03039786637160511</v>
+        <v>0.03372823340231205</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4552788044.800639</v>
+        <v>5073124138.247745</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1482160443953242</v>
+        <v>0.1552499450290988</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02385951557652421</v>
+        <v>0.02358358569822562</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>209</v>
+      </c>
+      <c r="J97" t="n">
+        <v>403</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2754892392.97255</v>
+        <v>3198746706.870461</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1015168067860297</v>
+        <v>0.1123860921889976</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03108762158502966</v>
+        <v>0.02825980317631173</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>105</v>
+      </c>
+      <c r="J98" t="n">
+        <v>402</v>
+      </c>
+      <c r="K98" t="n">
+        <v>43.88442882332794</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2721711792.664164</v>
+        <v>2621909415.259123</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1155237160741389</v>
+        <v>0.1107599401659025</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02186847349339024</v>
+        <v>0.02356528379431025</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4030439001.113232</v>
+        <v>4117933159.520447</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1207031515873065</v>
+        <v>0.1521879091572017</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02086495218629146</v>
+        <v>0.01853387806952234</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>187</v>
+      </c>
+      <c r="J100" t="n">
+        <v>403</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3518443482.791746</v>
+        <v>2767877847.802993</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2160501036876478</v>
+        <v>0.1553768090718061</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05464550866039835</v>
+        <v>0.05380392918484536</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
